--- a/steigenberger/src/main/resources/grossprofitmarginwtw.xlsx
+++ b/steigenberger/src/main/resources/grossprofitmarginwtw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\haier\steigenberger\steigenberger\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9932E9-0234-4562-8D4E-480833B978CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28007807-67B3-412E-9FE3-800F66295A6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="F4")</t>
+          <t>jx:area(lastCell="I4")</t>
         </r>
       </text>
     </comment>
@@ -59,7 +59,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="margins" var="margin" lastCell="F4")</t>
+          <t>jx:each(items="margins" var="margin" lastCell="I4")</t>
         </r>
       </text>
     </comment>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
